--- a/191025_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191025_Deuterium_Transfer_Peak_Areas.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TomNaragon/Desktop/Parker_Research/DCHC_transfer_Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0B8F3C-2259-4781-B20D-3F36B8B5FA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="2280" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="-320" yWindow="1510" windowWidth="38360" windowHeight="16360" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -107,16 +102,16 @@
     <t>#GCMS data for experiment recorded on 191022</t>
   </si>
   <si>
-    <t>N</t>
+    <t>U</t>
   </si>
   <si>
-    <t>U</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,31 +456,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9318726-D8BA-4845-AE33-2EE2376C2E04}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:N52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -529,7 +524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -570,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -614,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -658,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -702,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -746,10 +741,10 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -790,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -831,13 +826,13 @@
         <v>0.77</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -875,13 +870,13 @@
         <v>0.96</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -919,13 +914,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -963,13 +958,13 @@
         <v>0.82</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1007,13 +1002,13 @@
         <v>1.03</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1051,13 +1046,13 @@
         <v>0.77</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1095,13 +1090,13 @@
         <v>0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1139,13 +1134,13 @@
         <v>0.99</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1183,13 +1178,13 @@
         <v>0.78</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1227,13 +1222,13 @@
         <v>0.82</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1271,13 +1266,13 @@
         <v>0.88</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1315,13 +1310,13 @@
         <v>0.64</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1362,10 +1357,10 @@
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1406,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1450,10 +1445,10 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1494,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1538,10 +1533,10 @@
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1582,10 +1577,10 @@
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1623,13 +1618,13 @@
         <v>0.82</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1667,13 +1662,13 @@
         <v>0.87</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1711,13 +1706,13 @@
         <v>0.85</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1755,13 +1750,13 @@
         <v>0.82</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1799,13 +1794,13 @@
         <v>0.87</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1843,13 +1838,13 @@
         <v>0.85</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1890,10 +1885,10 @@
         <v>12</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1934,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1978,10 +1973,10 @@
         <v>12</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2022,10 +2017,10 @@
         <v>12</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2066,10 +2061,10 @@
         <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2110,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2154,10 +2149,10 @@
         <v>12</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2198,10 +2193,10 @@
         <v>12</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2242,10 +2237,10 @@
         <v>12</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2286,10 +2281,10 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2330,10 +2325,10 @@
         <v>12</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2374,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2415,13 +2410,13 @@
         <v>0.8</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2459,13 +2454,13 @@
         <v>0.79</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2503,13 +2498,13 @@
         <v>0.78</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2547,13 +2542,13 @@
         <v>0.83</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2591,13 +2586,13 @@
         <v>0.83</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2635,10 +2630,10 @@
         <v>0.76</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
